--- a/groups/23-24-Univers/tasks_results/24.01.14.xlsx
+++ b/groups/23-24-Univers/tasks_results/24.01.14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>1826</t>
+  </si>
+  <si>
+    <t>11-</t>
   </si>
   <si>
     <t>1835</t>
@@ -605,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -725,23 +728,26 @@
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/groups/23-24-Univers/tasks_results/24.01.14.xlsx
+++ b/groups/23-24-Univers/tasks_results/24.01.14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +73,12 @@
     <t>12</t>
   </si>
   <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
     <t>8-</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t>102</t>
   </si>
   <si>
-    <t>1+</t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>1835</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
   </si>
   <si>
     <t>1907</t>
@@ -195,13 +195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -621,123 +621,132 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
